--- a/ru/downloads/data-excel/3.9.2.xlsx
+++ b/ru/downloads/data-excel/3.9.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>3.9.2 Коопсуз суунун, коопсуз санитариянын жана гигиенанын жоктугунана болгон өлүм</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -729,9 +732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -742,7 +747,7 @@
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.75" customHeight="1">
+    <row r="1" spans="1:17" ht="39.75" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -764,7 +769,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -786,7 +791,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -802,7 +807,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -851,8 +856,11 @@
       <c r="P4" s="23">
         <v>2019</v>
       </c>
+      <c r="Q4" s="23">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -901,8 +909,11 @@
       <c r="P5" s="27">
         <v>0.9</v>
       </c>
+      <c r="Q5" s="27">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
@@ -951,8 +962,11 @@
       <c r="P6" s="28">
         <v>2.1</v>
       </c>
+      <c r="Q6" s="25">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1001,8 +1015,11 @@
       <c r="P7" s="28">
         <v>0.4</v>
       </c>
+      <c r="Q7" s="25" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1">
+    <row r="8" spans="1:17" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -1051,8 +1068,11 @@
       <c r="P8" s="28">
         <v>0.6</v>
       </c>
+      <c r="Q8" s="25">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1101,8 +1121,11 @@
       <c r="P9" s="28">
         <v>1.4</v>
       </c>
+      <c r="Q9" s="25" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1">
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1151,8 +1174,11 @@
       <c r="P10" s="28">
         <v>1.3</v>
       </c>
+      <c r="Q10" s="25">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -1201,8 +1227,11 @@
       <c r="P11" s="28">
         <v>0.4</v>
       </c>
+      <c r="Q11" s="25" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -1251,8 +1280,11 @@
       <c r="P12" s="28">
         <v>0.7</v>
       </c>
+      <c r="Q12" s="25">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1">
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -1301,8 +1333,11 @@
       <c r="P13" s="28">
         <v>0.7</v>
       </c>
+      <c r="Q13" s="28" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -1351,8 +1386,11 @@
       <c r="P14" s="29">
         <v>0.7</v>
       </c>
+      <c r="Q14" s="29" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>

--- a/ru/downloads/data-excel/3.9.2.xlsx
+++ b/ru/downloads/data-excel/3.9.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -732,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -747,7 +747,7 @@
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.75" customHeight="1">
+    <row r="1" spans="1:18" ht="39.75" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -807,7 +807,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -859,8 +859,11 @@
       <c r="Q4" s="23">
         <v>2020</v>
       </c>
+      <c r="R4" s="23">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+    <row r="5" spans="1:18" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -912,8 +915,11 @@
       <c r="Q5" s="27">
         <v>0.1</v>
       </c>
+      <c r="R5" s="27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+    <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
@@ -965,8 +971,11 @@
       <c r="Q6" s="25">
         <v>0.2</v>
       </c>
+      <c r="R6" s="28">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+    <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1018,8 +1027,11 @@
       <c r="Q7" s="25" t="s">
         <v>39</v>
       </c>
+      <c r="R7" s="28">
+        <v>1.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+    <row r="8" spans="1:18" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -1071,8 +1083,11 @@
       <c r="Q8" s="25">
         <v>0.2</v>
       </c>
+      <c r="R8" s="28" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+    <row r="9" spans="1:18" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1124,8 +1139,11 @@
       <c r="Q9" s="25" t="s">
         <v>39</v>
       </c>
+      <c r="R9" s="28">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1177,8 +1195,11 @@
       <c r="Q10" s="25">
         <v>0.1</v>
       </c>
+      <c r="R10" s="28">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+    <row r="11" spans="1:18" ht="15" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -1230,8 +1251,11 @@
       <c r="Q11" s="25" t="s">
         <v>39</v>
       </c>
+      <c r="R11" s="28" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+    <row r="12" spans="1:18" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -1283,8 +1307,11 @@
       <c r="Q12" s="25">
         <v>0.3</v>
       </c>
+      <c r="R12" s="28">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
+    <row r="13" spans="1:18" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -1336,8 +1363,11 @@
       <c r="Q13" s="28" t="s">
         <v>39</v>
       </c>
+      <c r="R13" s="28">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:18" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="Q14" s="29" t="s">
         <v>39</v>
       </c>
+      <c r="R14" s="29">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>

--- a/ru/downloads/data-excel/3.9.2.xlsx
+++ b/ru/downloads/data-excel/3.9.2.xlsx
@@ -130,10 +130,10 @@
     <t>3.9.2 Смертность от отсутствия безопасной воды, безопасной санитарии и гигиены</t>
   </si>
   <si>
-    <t>3.9.2 Коопсуз суунун, коопсуз санитариянын жана гигиенанын жоктугунана болгон өлүм</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>3.9.2 Коопсуздук суунун, коопсуздук санитариянын жана гигиенанын жоктугунан болгон өлүм</t>
   </si>
 </sst>
 </file>
@@ -732,11 +732,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -747,9 +745,9 @@
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.75" customHeight="1">
+    <row r="1" spans="1:19" ht="39.75" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>37</v>
@@ -769,7 +767,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -791,7 +789,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -807,7 +805,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -862,8 +860,11 @@
       <c r="R4" s="23">
         <v>2021</v>
       </c>
+      <c r="S4" s="23">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1">
+    <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -918,8 +919,11 @@
       <c r="R5" s="27">
         <v>1</v>
       </c>
+      <c r="S5" s="27">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1">
+    <row r="6" spans="1:19" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
@@ -974,8 +978,11 @@
       <c r="R6" s="28">
         <v>2.2000000000000002</v>
       </c>
+      <c r="S6" s="28">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1">
+    <row r="7" spans="1:19" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1025,13 +1032,16 @@
         <v>0.4</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R7" s="28">
         <v>1.7</v>
       </c>
+      <c r="S7" s="28">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1">
+    <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -1084,10 +1094,13 @@
         <v>0.2</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="S8" s="28">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
+    <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1137,13 +1150,16 @@
         <v>1.4</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R9" s="28">
         <v>0.3</v>
       </c>
+      <c r="S9" s="28">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1198,8 +1214,11 @@
       <c r="R10" s="28">
         <v>1.1000000000000001</v>
       </c>
+      <c r="S10" s="28">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
+    <row r="11" spans="1:19" ht="15" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -1249,13 +1268,16 @@
         <v>0.4</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="S11" s="28">
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1">
+    <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -1310,8 +1332,11 @@
       <c r="R12" s="28">
         <v>0.9</v>
       </c>
+      <c r="S12" s="28">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
+    <row r="13" spans="1:19" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -1361,13 +1386,16 @@
         <v>0.7</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R13" s="28">
         <v>0.4</v>
       </c>
+      <c r="S13" s="28">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -1417,13 +1445,16 @@
         <v>0.7</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R14" s="29">
         <v>0.6</v>
       </c>
+      <c r="S14" s="29">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>

--- a/ru/downloads/data-excel/3.9.2.xlsx
+++ b/ru/downloads/data-excel/3.9.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -124,16 +124,16 @@
     <t>(калктын 100 000ине карата )</t>
   </si>
   <si>
-    <t>3.9.2 Mortality rate attributed to unsafe water, unsafe sanitation and lack of hygiene</t>
-  </si>
-  <si>
-    <t>3.9.2 Смертность от отсутствия безопасной воды, безопасной санитарии и гигиены</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>3.9.2 Коопсуздук суунун, коопсуздук санитариянын жана гигиенанын жоктугунан болгон өлүм</t>
+    <t>3.9.2 Смертность от отсутствия безопасной воды, безопасной санитарии и гигиены (от отсутствия безопасных услуг в области водоснабжения, санитарии и гигиены (ВССГ) для всех)</t>
+  </si>
+  <si>
+    <t>3.9.2 Mortality rate attributed to unsafe water, unsafe sanitation and lack of hygiene (exposure to unsafe Water, Sanitation and Hygiene for All (WASH) services)</t>
+  </si>
+  <si>
+    <t>3.9.2 Коопсуз суунун, коопсуз  санитариянын жана гигиенанын жоктугунан болгон өлүм (бардыгы  үчүн  коопсуз суу менен камсыздоо, санитария жана гигиена кызматтарынын жоктугу СКСГ )</t>
   </si>
 </sst>
 </file>
@@ -732,20 +732,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="1" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39.75" customHeight="1">
+    <row r="1" spans="1:20" ht="72" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>39</v>
       </c>
@@ -753,7 +750,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -767,7 +764,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -789,7 +786,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -805,7 +802,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -863,8 +860,11 @@
       <c r="S4" s="23">
         <v>2022</v>
       </c>
+      <c r="T4" s="23">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1">
+    <row r="5" spans="1:20" ht="17.25" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -922,8 +922,11 @@
       <c r="S5" s="27">
         <v>1.2</v>
       </c>
+      <c r="T5" s="27">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1">
+    <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
@@ -981,8 +984,11 @@
       <c r="S6" s="28">
         <v>2.7</v>
       </c>
+      <c r="T6" s="28">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1">
+    <row r="7" spans="1:20" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>0.4</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R7" s="28">
         <v>1.7</v>
@@ -1040,8 +1046,11 @@
       <c r="S7" s="28">
         <v>0.9</v>
       </c>
+      <c r="T7" s="28">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1">
+    <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -1094,13 +1103,16 @@
         <v>0.2</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S8" s="28">
         <v>0.4</v>
       </c>
+      <c r="T8" s="28" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1">
+    <row r="9" spans="1:20" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>1.4</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R9" s="28">
         <v>0.3</v>
@@ -1158,8 +1170,11 @@
       <c r="S9" s="28">
         <v>0.7</v>
       </c>
+      <c r="T9" s="28">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1">
+    <row r="10" spans="1:20" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1217,8 +1232,11 @@
       <c r="S10" s="28">
         <v>0.9</v>
       </c>
+      <c r="T10" s="28">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1">
+    <row r="11" spans="1:20" ht="15" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -1268,16 +1286,19 @@
         <v>0.4</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S11" s="28">
         <v>1.1000000000000001</v>
       </c>
+      <c r="T11" s="28">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1">
+    <row r="12" spans="1:20" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -1335,8 +1356,11 @@
       <c r="S12" s="28">
         <v>2.7</v>
       </c>
+      <c r="T12" s="28">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1">
+    <row r="13" spans="1:20" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -1386,7 +1410,7 @@
         <v>0.7</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R13" s="28">
         <v>0.4</v>
@@ -1394,8 +1418,11 @@
       <c r="S13" s="28">
         <v>0.4</v>
       </c>
+      <c r="T13" s="28">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -1445,7 +1472,7 @@
         <v>0.7</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R14" s="29">
         <v>0.6</v>
@@ -1453,8 +1480,11 @@
       <c r="S14" s="29">
         <v>0.6</v>
       </c>
+      <c r="T14" s="29" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
